--- a/data/Results/RunsRaspberryPi3B-Uni-POCL-Load100k.xlsx
+++ b/data/Results/RunsRaspberryPi3B-Uni-POCL-Load100k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moritz Herzog\Documents\Projekte\EmbeddedSystemsProject\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27BB192-FA8F-49A2-8CB2-DB6DC96AFFAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77A28D5-0C64-4582-A356-F6E385D8A8B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14920,15 +14920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14955,16 +14955,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15783,8 +15783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008F86B7-98B9-4243-9ED1-971D4CA61F2D}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
